--- a/src/assets/AMC_Manager_-_Wallet.xlsx
+++ b/src/assets/AMC_Manager_-_Wallet.xlsx
@@ -351,12 +351,244 @@
       <c r="D2" s="3"/>
       <c r="G2" s="3"/>
     </row>
+    <row r="3">
+      <c r="D3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="3"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D61">
       <formula1>"BGN,EUR,USD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G57">
       <formula1>"Акции,Корпоративни облигации,Дялове на колективни инвестиционни схеми,Пари и депозити,Други активи,Вземания"</formula1>
     </dataValidation>
   </dataValidations>
